--- a/Grym_parameter_combinations.xlsx
+++ b/Grym_parameter_combinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dale_mas\Documents\Projects\Krill Parameters\Grym_Base_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A8DB9-D478-40A3-85DD-BC9943ABBE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656CEB4-C902-4FF1-9BC3-5758D0DF2F1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" xr2:uid="{B10C873A-923F-4F9A-83B8-69D2525956CF}"/>
   </bookViews>
@@ -306,8 +306,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -411,8 +411,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +730,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="92" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:K37"/>
+      <selection activeCell="A43" sqref="A38:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
